--- a/DateBase/orders/Dang Nguyen_2025-1-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-19.xlsx
@@ -693,6 +693,9 @@
       <c r="C31" t="str">
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -754,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201003030102020152020202015420201520202020202020158515200</v>
+        <v>0201003030102020152020202015420201520202020202020158515202</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-1-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-19.xlsx
@@ -694,7 +694,7 @@
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201003030102020152020202015420201520202020202020158515202</v>
+        <v>02010030301020201520202020154202015202020202020201585152020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-1-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,9 +697,33 @@
         <v>20</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L34"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -757,7 +781,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02010030301020201520202020154202015202020202020201585152020</v>
+        <v>02010030301020201520202020154202015202020202020201585152020151515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-1-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-19.xlsx
@@ -783,6 +783,9 @@
       <c r="G2" t="str">
         <v>02010030301020201520202020154202015202020202020201585152020151515</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
